--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iverullrikhepso/Documents/GitHub/Tidskalkyle_Gibbscam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9056420F-DEF7-964A-8E49-6BC26356898A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DCFA1-541B-CA42-AA1E-98068F1E04E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Productcode</t>
-  </si>
-  <si>
-    <t>Time</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Productcode:</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>156406_A_Framside</t>
+  </si>
+  <si>
+    <t>0:48:30.0</t>
+  </si>
+  <si>
+    <t>156406_A_Bakside</t>
+  </si>
+  <si>
+    <t>0:14:22.0</t>
+  </si>
+  <si>
+    <t>164812_G_Bakside</t>
+  </si>
+  <si>
+    <t>0:24:28.0</t>
   </si>
   <si>
     <t>164812_G_Framside</t>
@@ -35,7 +53,7 @@
     <t>1:11:6.0</t>
   </si>
   <si>
-    <t>Total Machining time</t>
+    <t>Total Machining time:</t>
   </si>
 </sst>
 </file>
@@ -375,14 +393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -399,6 +416,30 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -413,17 +454,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iverullrikhepso/Documents/GitHub/Tidskalkyle_Gibbscam/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DCFA1-541B-CA42-AA1E-98068F1E04E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Productcode:</t>
   </si>
@@ -32,25 +26,13 @@
     <t>156406_A_Framside</t>
   </si>
   <si>
-    <t>0:48:30.0</t>
-  </si>
-  <si>
     <t>156406_A_Bakside</t>
   </si>
   <si>
-    <t>0:14:22.0</t>
-  </si>
-  <si>
     <t>164812_G_Bakside</t>
   </si>
   <si>
-    <t>0:24:28.0</t>
-  </si>
-  <si>
     <t>164812_G_Framside</t>
-  </si>
-  <si>
-    <t>1:11:6.0</t>
   </si>
   <si>
     <t>Total Machining time:</t>
@@ -59,19 +41,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,24 +70,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -392,78 +366,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    </row>
+    <row r="2" spans="1:2"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="630" yWindow="600"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11960" windowWidth="27500" xWindow="640" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Productcode:</t>
   </si>
@@ -35,7 +35,19 @@
     <t>164812_G_Framside</t>
   </si>
   <si>
+    <t>164812_G_Forsenking</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>Total Machining time:</t>
+  </si>
+  <si>
+    <t>156406</t>
+  </si>
+  <si>
+    <t>164812</t>
   </si>
 </sst>
 </file>
@@ -371,13 +383,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="18.33203125"/>
+    <col customWidth="1" max="2" min="2" width="13.5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -419,7 +435,17 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="6" spans="1:2"/>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -431,16 +457,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -448,10 +474,73 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Productcode:</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>164812_G_Framside</t>
-  </si>
-  <si>
-    <t>164812_G_Forsenking</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>Total Machining time:</t>
@@ -84,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -383,10 +378,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -436,18 +431,26 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" t="n">
+        <v>4266</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2"/>
+      <c r="A7" s="1" t="n"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="n"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="n"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -474,12 +477,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>2910</v>
@@ -487,7 +490,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>3772</v>
@@ -495,7 +498,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>6682</v>
@@ -503,7 +506,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>7544</v>
@@ -511,7 +514,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>9012</v>
@@ -519,7 +522,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>13278</v>
@@ -527,7 +530,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>14746</v>
@@ -535,7 +538,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
         <v>19012</v>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11960" windowWidth="27500" xWindow="640" yWindow="600"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="645" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -380,14 +380,14 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="18.33203125"/>
-    <col customWidth="1" max="2" min="2" width="13.5"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="18.28515625"/>
+    <col customWidth="1" max="2" min="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -432,9 +432,6 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" t="n">
-        <v>4266</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="n"/>
@@ -460,16 +457,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.5"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -485,65 +482,18 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2910</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>14746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>19012</v>
-      </c>
-    </row>
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11960" windowWidth="27500" xWindow="640" yWindow="600"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="645" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Productcode:</t>
   </si>
@@ -35,13 +35,43 @@
     <t>164812_G_Framside</t>
   </si>
   <si>
+    <t>156407_A_Framside</t>
+  </si>
+  <si>
+    <t>156407_A_Bakside</t>
+  </si>
+  <si>
+    <t>156408_A_Framside</t>
+  </si>
+  <si>
+    <t>156408_A_Bakside</t>
+  </si>
+  <si>
     <t>Total Machining time:</t>
   </si>
   <si>
     <t>156406</t>
   </si>
   <si>
+    <t>1:2:52</t>
+  </si>
+  <si>
     <t>164812</t>
+  </si>
+  <si>
+    <t>1:35:34</t>
+  </si>
+  <si>
+    <t>156407</t>
+  </si>
+  <si>
+    <t>0:6:40</t>
+  </si>
+  <si>
+    <t>156408</t>
+  </si>
+  <si>
+    <t>0:13:20</t>
   </si>
 </sst>
 </file>
@@ -380,14 +410,14 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="18.33203125"/>
-    <col customWidth="1" max="2" min="2" width="13.5"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="18.28515625"/>
+    <col customWidth="1" max="2" min="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -431,19 +461,36 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" t="n">
-        <v>4266</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="n"/>
@@ -460,16 +507,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.5"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -477,71 +524,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2910</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3772</v>
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6682</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>14746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>19012</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2910</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6682</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>7544</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>9012</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -525,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>13278</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>14746</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -541,9 +541,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19012</v>
-      </c>
-    </row>
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11960" windowWidth="27500" xWindow="640" yWindow="600"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11960" windowWidth="27500" xWindow="640" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Productcode:</t>
   </si>
@@ -38,10 +38,16 @@
     <t>Total Machining time:</t>
   </si>
   <si>
+    <t>164812</t>
+  </si>
+  <si>
+    <t>1:35:34</t>
+  </si>
+  <si>
     <t>156406</t>
   </si>
   <si>
-    <t>164812</t>
+    <t>1:2:52</t>
   </si>
 </sst>
 </file>
@@ -380,8 +386,8 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -432,9 +438,6 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" t="n">
-        <v>4266</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="n"/>
@@ -460,10 +463,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -484,67 +487,18 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>3772</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2"/>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11960" windowWidth="27500" xWindow="640" yWindow="600"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="645" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Productcode:</t>
   </si>
@@ -35,19 +35,28 @@
     <t>164812_G_Framside</t>
   </si>
   <si>
+    <t>163767_M_Sylindrisk</t>
+  </si>
+  <si>
     <t>Total Machining time:</t>
   </si>
   <si>
+    <t>156406</t>
+  </si>
+  <si>
+    <t>1:2:52</t>
+  </si>
+  <si>
+    <t>163767</t>
+  </si>
+  <si>
+    <t>1:0:58</t>
+  </si>
+  <si>
     <t>164812</t>
   </si>
   <si>
     <t>1:35:34</t>
-  </si>
-  <si>
-    <t>156406</t>
-  </si>
-  <si>
-    <t>1:2:52</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="18.33203125"/>
-    <col customWidth="1" max="2" min="2" width="13.5"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="18.28515625"/>
+    <col customWidth="1" max="2" min="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -437,7 +446,12 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3658</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="n"/>
@@ -463,16 +477,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B2:B9"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.5"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -480,25 +494,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="645" yWindow="600"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="645" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Productcode:</t>
   </si>
@@ -38,6 +38,9 @@
     <t>163767_M_Sylindrisk</t>
   </si>
   <si>
+    <t>102819_D_Bakside</t>
+  </si>
+  <si>
     <t>Total Machining time:</t>
   </si>
   <si>
@@ -57,6 +60,12 @@
   </si>
   <si>
     <t>1:35:34</t>
+  </si>
+  <si>
+    <t>102819</t>
+  </si>
+  <si>
+    <t>0:20:13</t>
   </si>
 </sst>
 </file>
@@ -395,11 +404,11 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="18.28515625"/>
     <col customWidth="1" max="2" min="2" width="13.42578125"/>
@@ -454,7 +463,12 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="n"/>
@@ -477,13 +491,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
@@ -494,34 +508,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="645" yWindow="600"/>
+    <workbookView xWindow="645" yWindow="600" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Productcode:</t>
   </si>
@@ -66,25 +66,30 @@
   </si>
   <si>
     <t>0:20:13</t>
+  </si>
+  <si>
+    <t>118280</t>
+  </si>
+  <si>
+    <t>0:32:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,16 +105,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,24 +408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="18.28515625"/>
-    <col customWidth="1" max="2" min="2" width="13.42578125"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,88 +429,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2910</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>862</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1468</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4266</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3658</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1213</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -519,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -527,7 +530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -535,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -543,8 +546,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Productcode:</t>
   </si>
@@ -35,12 +35,6 @@
     <t>164812_G_Framside</t>
   </si>
   <si>
-    <t>163767_M_Sylindrisk</t>
-  </si>
-  <si>
-    <t>102819_D_Bakside</t>
-  </si>
-  <si>
     <t>Total Machining time:</t>
   </si>
   <si>
@@ -60,18 +54,6 @@
   </si>
   <si>
     <t>1:35:34</t>
-  </si>
-  <si>
-    <t>102819</t>
-  </si>
-  <si>
-    <t>0:20:13</t>
-  </si>
-  <si>
-    <t>118280</t>
-  </si>
-  <si>
-    <t>0:32:35</t>
   </si>
 </sst>
 </file>
@@ -412,7 +394,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,20 +444,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3658</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1213</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -494,10 +466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,47 +483,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tidskalkyle.xlsx
+++ b/Tidskalkyle.xlsx
@@ -1,77 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="600" windowWidth="27495" windowHeight="11955"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11955" windowWidth="27495" xWindow="645" yWindow="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Productcode:</t>
-  </si>
-  <si>
-    <t>Time:</t>
-  </si>
-  <si>
-    <t>156406_A_Framside</t>
-  </si>
-  <si>
-    <t>156406_A_Bakside</t>
-  </si>
-  <si>
-    <t>164812_G_Bakside</t>
-  </si>
-  <si>
-    <t>164812_G_Framside</t>
-  </si>
-  <si>
-    <t>Total Machining time:</t>
-  </si>
-  <si>
-    <t>156406</t>
-  </si>
-  <si>
-    <t>1:2:52</t>
-  </si>
-  <si>
-    <t>163767</t>
-  </si>
-  <si>
-    <t>1:0:58</t>
-  </si>
-  <si>
-    <t>164812</t>
-  </si>
-  <si>
-    <t>1:35:34</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,22 +44,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -390,127 +341,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="18.28515625"/>
+    <col customWidth="1" max="2" min="2" width="13.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Productcode:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Time:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>156406_A_Framside</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>2910</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>156406_A_Bakside</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>862</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>164812_G_Bakside</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1468</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>164812_G_Framside</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4266</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>169333_A_Bakside</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>169333_A_Framside</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="20.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Productcode:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Machining time:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>156406</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1:2:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>163767</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1:0:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>164812</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1:35:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>169333</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>